--- a/GameAssets/Tables/develop/Combat.xlsx
+++ b/GameAssets/Tables/develop/Combat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,9 +643,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -941,14 +964,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/GameAssets/Tables/develop/Combat.xlsx
+++ b/GameAssets/Tables/develop/Combat.xlsx
@@ -16,15 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>主键</t>
+  </si>
+  <si>
+    <t>攻击力</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>attack</t>
   </si>
   <si>
     <t>30000</t>
@@ -647,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -964,32 +970,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
